--- a/src/assets/templates/VocationalTrainers_Template.xlsx
+++ b/src/assets/templates/VocationalTrainers_Template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C014449-67C5-4895-A41F-ED3C8B9F065E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VocationalTrainers" sheetId="3" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="131">
   <si>
     <t>Demography</t>
   </si>
@@ -197,18 +198,12 @@
     <t>Semi Urban</t>
   </si>
   <si>
-    <t>NatureOfAppointment</t>
-  </si>
-  <si>
     <t>AcademicQualification</t>
   </si>
   <si>
     <t>ProfessionalQualification</t>
   </si>
   <si>
-    <t>varchar(150)</t>
-  </si>
-  <si>
     <t>varchar(50)</t>
   </si>
   <si>
@@ -410,23 +405,17 @@
     <t>DateOfResignation</t>
   </si>
   <si>
-    <t>VCName</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
     <t>SocialCategory</t>
-  </si>
-  <si>
-    <t>VTPShortName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,14 +453,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -521,11 +502,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -543,11 +523,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,6 +617,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -674,6 +669,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -849,184 +861,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="15.109375" style="6"/>
+    <col min="1" max="1" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="15.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>78</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Q2" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="12"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1034,21 +1023,18 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1056,21 +1042,18 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1078,21 +1061,18 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1100,21 +1080,18 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1122,21 +1099,18 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1144,21 +1118,18 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1166,21 +1137,18 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1188,21 +1156,18 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="12"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1210,77 +1175,46 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="12"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Dropdowns!$P$3:$P$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J13</xm:sqref>
+          <xm:sqref>I3:I12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Dropdowns!$R$3:$R$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>K3:K13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Dropdowns!$T$3:$T$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L13</xm:sqref>
+          <xm:sqref>J3:J12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Dropdowns!$V$3:$V$7</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M13</xm:sqref>
+          <xm:sqref>K3:K12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Dropdowns!$N$8:$N$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H13</xm:sqref>
+          <xm:sqref>G3:G12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1289,38 +1223,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:V35"/>
   <sheetViews>
     <sheetView topLeftCell="K7" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.44140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="26.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.33203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="52.6640625" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="2"/>
+    <col min="17" max="17" width="4.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="52.7109375" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
@@ -1346,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1381,19 +1315,19 @@
         <v>57</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1416,19 +1350,19 @@
         <v>58</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1445,19 +1379,19 @@
         <v>59</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1471,19 +1405,19 @@
         <v>28</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1495,64 +1429,64 @@
         <v>29</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="L8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="L9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="L10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="L11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1560,194 +1494,194 @@
         <v>8</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="L12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="L13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="L14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="L15" s="5" t="s">
         <v>37</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="14.4" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="15" x14ac:dyDescent="0.2">
       <c r="L16" s="5" t="s">
         <v>38</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L17" s="5" t="s">
         <v>39</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L21" s="5" t="s">
         <v>42</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L23" s="5" t="s">
         <v>44</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L24" s="5" t="s">
         <v>45</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L25" s="5" t="s">
         <v>46</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L26" s="5" t="s">
         <v>47</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L27" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="28" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L28" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L29" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L30" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="31" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L31" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="12:16" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:16" ht="15" x14ac:dyDescent="0.2">
       <c r="L32" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="12:12" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:12" ht="15" x14ac:dyDescent="0.2">
       <c r="L33" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="12:12" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12" ht="15" x14ac:dyDescent="0.2">
       <c r="L34" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="12:12" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="35" spans="12:12" ht="15" x14ac:dyDescent="0.2">
       <c r="L35" s="5" t="s">
         <v>56</v>
       </c>
